--- a/测试报告模板/测试报告模板.xlsx
+++ b/测试报告模板/测试报告模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="4"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一轮测试" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>monkey测试：主要用于测试随机崩溃bug，选择不同手机，每个事件0.5秒，每轮测试5000个事件</t>
   </si>
   <si>
-    <t>monkeyrunner测试：主要用于主流程点击事件的测试，减少因该bug造成的崩溃或其他问题</t>
+    <t>monkeyrunner测试：主要用于主流程点击事件的测试，减少因改bug造成的崩溃或其他问题</t>
   </si>
   <si>
     <t xml:space="preserve">版本发布报告：
@@ -97,7 +97,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,8 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,60 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,44 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,20 +516,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,24 +570,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +593,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +631,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,12 +790,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1163,76 +1157,76 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1259,43 +1253,43 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
@@ -1435,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1509,26 +1503,26 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1546,7 +1540,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
